--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W5_H200_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W5_H200_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5565749235474006</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.75</v>
-      </c>
+        <v>0.552870090634441</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9945355191256831</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02027027027027027</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5589123867069486</v>
+        <v>0.552870090634441</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7137254901960784</v>
+        <v>0.7120622568093384</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4803625377643505</v>
+        <v>0.4773413897280967</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1015736077833157</v>
+        <v>0.08953292321089303</v>
       </c>
       <c r="J2" t="n">
-        <v>1367.527080184509</v>
+        <v>1165.451444450436</v>
       </c>
       <c r="K2" t="n">
-        <v>2637919.630480205</v>
+        <v>1712713.173740993</v>
       </c>
       <c r="L2" t="n">
-        <v>1624.1673652922</v>
+        <v>1308.706679795359</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5068583059357451</v>
+        <v>0.6798195569775385</v>
       </c>
     </row>
   </sheetData>
